--- a/medicine/Enfance/Nathalie_Choux/Nathalie_Choux.xlsx
+++ b/medicine/Enfance/Nathalie_Choux/Nathalie_Choux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathalie Choux, née le 6 février 1967 à Nancy, est une auteure et illustratrice de littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nathalie a été formée aux Arts appliqués à Paris, puis pendant un an à l'École Nationale de Marionnettes de Prague[1]. De retour à Paris, elle entre au Arts décoratifs de Paris, filière illustration. Diplôme en poche , elle devient ensuite illustratrice pour l'édition, la presse jeunesse, l'édition de jeu et la publicité[2],[3]... Parallèlement, elle choisit la céramique pour développer son univers en volume. Elle vit à présent à Montreuil, et sa maison lui sert également d'atelier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nathalie a été formée aux Arts appliqués à Paris, puis pendant un an à l'École Nationale de Marionnettes de Prague. De retour à Paris, elle entre au Arts décoratifs de Paris, filière illustration. Diplôme en poche , elle devient ensuite illustratrice pour l'édition, la presse jeunesse, l'édition de jeu et la publicité,... Parallèlement, elle choisit la céramique pour développer son univers en volume. Elle vit à présent à Montreuil, et sa maison lui sert également d'atelier.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a illustré et écrit de nombreux livres[4],[3],[5].
-Auteure et illustratrice
-Mes amis de la rue, Éditions Mango, 1996
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a illustré et écrit de nombreux livres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nathalie_Choux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Choux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mes amis de la rue, Éditions Mango, 1996
 Lilicat, Albin Michel Jeunesse, 2001
 Quelles fleurs pour le dire, L'Ampoule, 2003
 Le loup et les sept chevreaux, Milan, 2007
@@ -564,9 +615,43 @@
 Je joue mes comptines de Noël au piano, Gallimard Jeunesse, 2018
 La moufle, Milan, 2019
 Les animaux de la mer, Milan, 2019
-Cap de nous faire rire ?, Milan, 2019
-Illustratrice
-Mémé Papouche marche au super, texte de Claire Dérouin, Syros, 1993
+Cap de nous faire rire ?, Milan, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathalie_Choux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Choux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mémé Papouche marche au super, texte de Claire Dérouin, Syros, 1993
 (de) Prinzessin Mislim, texte de Véréna Vondrak, Neuer Breitschopf Verlag, 1993
 Polochon, le cochon qui portait des caleçons, texte de Jean-Loup Craipeau
 Voyage en Illusia, texte de Ghislaine Beaudout, Seuil Jeunesse, 1999, Mango, 1994
@@ -592,20 +677,20 @@
 Des kilomètres de ficelle, texte de Alex Cousseau, éditions Sarbacane, 2010
 Loup ne sait pas s'habiller, texte de Nadine Brun-Cosme, Flammarion jeunesse, 2011
 L'Énigme du Père Noël, texte de Stephane Daniel, Gallimard Jeunesse, 2011
-Blanche[6], texte Anne Cortey et Françoise de Guibert, Hélium, 2011
+Blanche, texte Anne Cortey et Françoise de Guibert, Hélium, 2011
 Tout le monde veut voir la mer, texte de Agnès de Lestrade, du Rouergue, 2011
 Les amis de Malou, texte de Nadine Brun-Cosme, Nathan, 2012
 Poucette, traduit par Catherine-Lise Dubost, Milan, 2012
 Hansel et Gretel, texte par Emmanuelle Cabrol, Milan 2012
-Mon grand-père devenu ours[7],[8], texte Alex Cousseau, Sarbacane, 2012
+Mon grand-père devenu ours texte Alex Cousseau, Sarbacane, 2012
 La Girafe qui voulait voir la banquise, texte de Natalie Zimmermann, Nathan, 2012
-Le Dîner du grillon[9], texte de Astrid Desbordes, Autrement, 2012
+Le Dîner du grillon, texte de Astrid Desbordes, Autrement, 2012
 De vrais amis, texte de Anne-Gaëlle Balpe, Gallimard Jeunesse, 2012
 Un cochon, un petit nuage, texte de Alain Serres, Rue du Monde, 2013
 L'Ogresse poilue, texte de Fabienne Morel et Debora Di Gilio, Syros, 2013
 La Poulette et les Trois maisonnettes, texte de Fabienne Morel et Debora Di Gilio, Syros, 2013
-Loup ne sait pas quel jour on est[10], texte de Nadine Brun-Cosme, Flammarion jeunesse, 2013
-La Voiture de Groucho[11], texte de Michèle Moreau, composition Antoine Delecroix et Gibus, raconté par Olivier Saladin, Didier jeunesse, 2014 - album-CD
+Loup ne sait pas quel jour on est, texte de Nadine Brun-Cosme, Flammarion jeunesse, 2013
+La Voiture de Groucho, texte de Michèle Moreau, composition Antoine Delecroix et Gibus, raconté par Olivier Saladin, Didier jeunesse, 2014 - album-CD
 Le Chachatatutu et le Phénix, texte de Jean-Louis Le Craver, Syros, 2014
 Zou Caribou, texte Marie-Sabine Roger, Sarbacane, 2014
 Bouc Cornu, Biquette et ses biquets, texte de Fabienne Morel et Debora Di Gilio, Syros, 2014
@@ -639,11 +724,45 @@
 Mirabelle Prunier, texte de Henri Meunier, Rouergue, 2020
 Bonne année petit dragon !, Nathan, coll. « Kididoc », 2020
 Pas sûr que les cow-boys s'embrassent : histoires courtes, texte de Henri Meunier, Actes Sud junior, 2021
-Deux frères dans la neige[12], texte de Raphaële Frier, Sarbacane, 2023
-Moitié moitié [13], texte de Henri Meunier, Rouergue 2023
- Par Hasard  , texte de Didier Baraud et Christian Demilly ,Actes Sud jeunesse 2023
-Séries
-Les Copains du CP, texte de Mymi Doinet, Nathan :
+Deux frères dans la neige, texte de Raphaële Frier, Sarbacane, 2023
+Moitié moitié , texte de Henri Meunier, Rouergue 2023
+ Par Hasard  , texte de Didier Baraud et Christian Demilly ,Actes Sud jeunesse 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nathalie_Choux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Choux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Copains du CP, texte de Mymi Doinet, Nathan :
 Tu flottes, Carotte !, 2015
 Tu es dans la lune, Roméo !, 2015
 Dis un mot, Tino !, 2014
@@ -665,31 +784,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nathalie_Choux</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nathalie_Choux</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2009 Exposition de dessins et céramiques, Librairie L'Imagigraphe Paris
 2010 Exposition de céramiques et illustrations, Galerie Voskel Paris
@@ -700,7 +821,7 @@
 2017 "Love me tender" Exposition céramiques, Festival Pictoplasma  Berlin
 2017  Exposition "Child War", Galerie Arts Factory Paris
 2017 "Ceramicas Frescas", Exposition de céramiques, Librairie Artazart Paris
-2018 : « Nos futurs », Salon du livre et de la presse jeunesse de Montreuil[1],[14]
+2018 : « Nos futurs », Salon du livre et de la presse jeunesse de Montreuil,
 2019 Exposition de dessins et céramiques, Galerie Arts Factory Paris
 2022 Exposition céramiques " Terra chimera", Galerie Arts Factory Paris
 2023 Exposition céramiques " Autoportrait dans un cercle d'amis " Espace Gainville , Aulnay
@@ -708,31 +829,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Nathalie_Choux</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nathalie_Choux</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Interview par Frédéric Bosser, « Nathalie so Choux ! », Les Arts dessinés, n°26, avril-juin 2024.</t>
         </is>
